--- a/spec/fixtures/dropbox/example_batch_ingest/non_manager_manifest.xlsx
+++ b/spec/fixtures/dropbox/example_batch_ingest/non_manager_manifest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t xml:space="preserve">Non-manager batch</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t xml:space="preserve">Test subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auction</t>
   </si>
   <si>
     <t xml:space="preserve">Single Ad</t>
@@ -272,24 +275,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2:S4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T5" activeCellId="0" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.6148148148148"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1074074074074"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="10.6814814814815"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.2481481481481"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="10.6814814814815"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.8740740740741"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.1111111111111"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="11.1703703703704"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="11.1703703703704"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.3"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6962962962963"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4444444444444"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.2666666666667"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.4037037037037"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="11.4666666666667"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="11.4666666666667"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="10.9740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -354,6 +357,9 @@
       <c r="S2" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="T2" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -407,10 +413,13 @@
       <c r="S3" s="0" t="s">
         <v>30</v>
       </c>
+      <c r="T3" s="0" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>18</v>
@@ -431,10 +440,10 @@
         <v>2013</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>24</v>
@@ -446,16 +455,19 @@
         <v>26</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>29</v>
       </c>
       <c r="S4" s="0" t="s">
         <v>30</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
